--- a/SchedulingData/dynamic13/pso/scheduling1_7.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_7.xlsx
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>64.56</v>
+        <v>51.34</v>
       </c>
       <c r="E2" t="n">
-        <v>27.184</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.26000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="E3" t="n">
-        <v>26.524</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.06</v>
+        <v>42.2</v>
       </c>
       <c r="E4" t="n">
-        <v>21.664</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>42.2</v>
       </c>
       <c r="D5" t="n">
-        <v>82.09999999999999</v>
+        <v>113.26</v>
       </c>
       <c r="E5" t="n">
-        <v>25.98</v>
+        <v>22.504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.26</v>
+        <v>97.3</v>
       </c>
       <c r="E6" t="n">
-        <v>22.004</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>128.26</v>
+        <v>97.3</v>
       </c>
       <c r="D7" t="n">
-        <v>198.06</v>
+        <v>139.06</v>
       </c>
       <c r="E7" t="n">
-        <v>19.144</v>
+        <v>22.864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="D8" t="n">
-        <v>57.16</v>
+        <v>103.18</v>
       </c>
       <c r="E8" t="n">
-        <v>26.464</v>
+        <v>24.472</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>139.06</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3</v>
+        <v>185.12</v>
       </c>
       <c r="E9" t="n">
-        <v>26.96</v>
+        <v>20.368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>185.12</v>
       </c>
       <c r="D10" t="n">
-        <v>53.72</v>
+        <v>241.62</v>
       </c>
       <c r="E10" t="n">
-        <v>26.828</v>
+        <v>17.328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>198.06</v>
+        <v>51.34</v>
       </c>
       <c r="D11" t="n">
-        <v>237.96</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>16.284</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="12">
@@ -656,150 +656,150 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>64.56</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>111.26</v>
+        <v>52.16</v>
       </c>
       <c r="E12" t="n">
-        <v>23.644</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57.16</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>118.56</v>
+        <v>161.58</v>
       </c>
       <c r="E13" t="n">
-        <v>22.944</v>
+        <v>20.272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52.3</v>
+        <v>113.26</v>
       </c>
       <c r="D14" t="n">
-        <v>104.4</v>
+        <v>154.06</v>
       </c>
       <c r="E14" t="n">
-        <v>22.88</v>
+        <v>20.064</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>111.26</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>161.36</v>
+        <v>74.8</v>
       </c>
       <c r="E15" t="n">
-        <v>20.264</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>118.56</v>
+        <v>161.58</v>
       </c>
       <c r="D16" t="n">
-        <v>215.26</v>
+        <v>219.02</v>
       </c>
       <c r="E16" t="n">
-        <v>19.344</v>
+        <v>17.148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>151.06</v>
+        <v>52.16</v>
       </c>
       <c r="D17" t="n">
-        <v>220.76</v>
+        <v>111.96</v>
       </c>
       <c r="E17" t="n">
-        <v>17.824</v>
+        <v>23.604</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>53.72</v>
+        <v>241.62</v>
       </c>
       <c r="D18" t="n">
-        <v>126.94</v>
+        <v>305.72</v>
       </c>
       <c r="E18" t="n">
-        <v>22.616</v>
+        <v>13.548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>220.76</v>
+        <v>103.18</v>
       </c>
       <c r="D19" t="n">
-        <v>271.5</v>
+        <v>165.98</v>
       </c>
       <c r="E19" t="n">
-        <v>14.86</v>
+        <v>20.312</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>161.36</v>
+        <v>111.96</v>
       </c>
       <c r="D20" t="n">
-        <v>201.46</v>
+        <v>188.96</v>
       </c>
       <c r="E20" t="n">
-        <v>17.384</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="21">
@@ -827,36 +827,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>126.94</v>
+        <v>219.02</v>
       </c>
       <c r="D21" t="n">
-        <v>172.42</v>
+        <v>290.42</v>
       </c>
       <c r="E21" t="n">
-        <v>19.208</v>
+        <v>13.128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>172.42</v>
+        <v>154.06</v>
       </c>
       <c r="D22" t="n">
-        <v>227.26</v>
+        <v>217.08</v>
       </c>
       <c r="E22" t="n">
-        <v>15.344</v>
+        <v>16.372</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>215.26</v>
+        <v>217.08</v>
       </c>
       <c r="D23" t="n">
-        <v>249.66</v>
+        <v>273.78</v>
       </c>
       <c r="E23" t="n">
-        <v>16.544</v>
+        <v>12.832</v>
       </c>
     </row>
     <row r="24">
@@ -884,55 +884,55 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>249.66</v>
+        <v>273.78</v>
       </c>
       <c r="D24" t="n">
-        <v>302.92</v>
+        <v>341.4</v>
       </c>
       <c r="E24" t="n">
-        <v>12.848</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>201.46</v>
+        <v>165.98</v>
       </c>
       <c r="D25" t="n">
-        <v>241.14</v>
+        <v>214.24</v>
       </c>
       <c r="E25" t="n">
-        <v>14.056</v>
+        <v>16.616</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>271.5</v>
+        <v>214.24</v>
       </c>
       <c r="D26" t="n">
-        <v>339.72</v>
+        <v>248.8</v>
       </c>
       <c r="E26" t="n">
-        <v>11.168</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="27">
@@ -941,131 +941,131 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>302.92</v>
+        <v>341.4</v>
       </c>
       <c r="D27" t="n">
-        <v>350.58</v>
+        <v>396.1</v>
       </c>
       <c r="E27" t="n">
-        <v>9.712</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>350.58</v>
+        <v>74.8</v>
       </c>
       <c r="D28" t="n">
-        <v>386.84</v>
+        <v>114.1</v>
       </c>
       <c r="E28" t="n">
-        <v>7.216</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>339.72</v>
+        <v>305.72</v>
       </c>
       <c r="D29" t="n">
-        <v>397.5</v>
+        <v>365.42</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>10.668</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>104.4</v>
+        <v>188.96</v>
       </c>
       <c r="D30" t="n">
-        <v>169</v>
+        <v>248.7</v>
       </c>
       <c r="E30" t="n">
-        <v>19.52</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>237.96</v>
+        <v>114.1</v>
       </c>
       <c r="D31" t="n">
-        <v>288.18</v>
+        <v>174.18</v>
       </c>
       <c r="E31" t="n">
-        <v>13.372</v>
+        <v>19.952</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>241.14</v>
+        <v>174.18</v>
       </c>
       <c r="D32" t="n">
-        <v>302.7</v>
+        <v>227.7</v>
       </c>
       <c r="E32" t="n">
-        <v>10.52</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>169</v>
+        <v>248.7</v>
       </c>
       <c r="D33" t="n">
-        <v>231.9</v>
+        <v>289.86</v>
       </c>
       <c r="E33" t="n">
-        <v>15.36</v>
+        <v>12.184</v>
       </c>
     </row>
     <row r="34">
@@ -1074,55 +1074,55 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>288.18</v>
+        <v>248.8</v>
       </c>
       <c r="D34" t="n">
-        <v>366.24</v>
+        <v>294</v>
       </c>
       <c r="E34" t="n">
-        <v>9.676</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>227.26</v>
+        <v>294</v>
       </c>
       <c r="D35" t="n">
-        <v>284.7</v>
+        <v>356.66</v>
       </c>
       <c r="E35" t="n">
-        <v>12.22</v>
+        <v>7.284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>302.7</v>
+        <v>290.42</v>
       </c>
       <c r="D36" t="n">
-        <v>357.64</v>
+        <v>372.9</v>
       </c>
       <c r="E36" t="n">
-        <v>6.656</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>386.84</v>
+        <v>396.1</v>
       </c>
       <c r="D37" t="n">
-        <v>475.64</v>
+        <v>440.48</v>
       </c>
       <c r="E37" t="n">
-        <v>3.436</v>
+        <v>3.992</v>
       </c>
     </row>
     <row r="38">
@@ -1150,74 +1150,74 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>231.9</v>
+        <v>365.42</v>
       </c>
       <c r="D38" t="n">
-        <v>295.88</v>
+        <v>435.32</v>
       </c>
       <c r="E38" t="n">
-        <v>12.552</v>
+        <v>7.308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>295.88</v>
+        <v>289.86</v>
       </c>
       <c r="D39" t="n">
-        <v>352.66</v>
+        <v>344.8</v>
       </c>
       <c r="E39" t="n">
-        <v>9.484</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>366.24</v>
+        <v>372.9</v>
       </c>
       <c r="D40" t="n">
-        <v>404.54</v>
+        <v>432.9</v>
       </c>
       <c r="E40" t="n">
-        <v>7.476</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>397.5</v>
+        <v>344.8</v>
       </c>
       <c r="D41" t="n">
-        <v>457.7</v>
+        <v>414.82</v>
       </c>
       <c r="E41" t="n">
-        <v>5.56</v>
+        <v>5.408</v>
       </c>
     </row>
   </sheetData>
